--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/C1qb-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/C1qb-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>1.888806</v>
+        <v>0.7975575</v>
       </c>
       <c r="H2">
-        <v>3.777612</v>
+        <v>1.595115</v>
       </c>
       <c r="I2">
-        <v>0.002232911865451325</v>
+        <v>0.001587108162585159</v>
       </c>
       <c r="J2">
-        <v>0.001489716712341933</v>
+        <v>0.001060423178847864</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N2">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O2">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P2">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q2">
-        <v>3.813586199076</v>
+        <v>8.642646510097501</v>
       </c>
       <c r="R2">
-        <v>15.254344796304</v>
+        <v>34.57058604039</v>
       </c>
       <c r="S2">
-        <v>8.876613614538044E-06</v>
+        <v>2.931170163820975E-05</v>
       </c>
       <c r="T2">
-        <v>4.032748854072112E-06</v>
+        <v>1.338568672253942E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,16 +605,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>1.888806</v>
+        <v>0.7975575</v>
       </c>
       <c r="H3">
-        <v>3.777612</v>
+        <v>1.595115</v>
       </c>
       <c r="I3">
-        <v>0.002232911865451325</v>
+        <v>0.001587108162585159</v>
       </c>
       <c r="J3">
-        <v>0.001489716712341933</v>
+        <v>0.001060423178847864</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P3">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q3">
-        <v>263.8564078889</v>
+        <v>111.414648743625</v>
       </c>
       <c r="R3">
-        <v>1583.1384473334</v>
+        <v>668.48789246175</v>
       </c>
       <c r="S3">
-        <v>0.0006141598118634886</v>
+        <v>0.0003778649211539063</v>
       </c>
       <c r="T3">
-        <v>0.0004185299234135678</v>
+        <v>0.0002588376574192046</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -667,16 +667,16 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>1.888806</v>
+        <v>0.7975575</v>
       </c>
       <c r="H4">
-        <v>3.777612</v>
+        <v>1.595115</v>
       </c>
       <c r="I4">
-        <v>0.002232911865451325</v>
+        <v>0.001587108162585159</v>
       </c>
       <c r="J4">
-        <v>0.001489716712341933</v>
+        <v>0.001060423178847864</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N4">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O4">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P4">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q4">
-        <v>351.9881657347221</v>
+        <v>119.7300337506</v>
       </c>
       <c r="R4">
-        <v>2111.928994408333</v>
+        <v>718.3802025036</v>
       </c>
       <c r="S4">
-        <v>0.0008192978422446929</v>
+        <v>0.0004060667091185682</v>
       </c>
       <c r="T4">
-        <v>0.0005583248147206846</v>
+        <v>0.0002781558960890308</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,16 +729,16 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>1.888806</v>
+        <v>0.7975575</v>
       </c>
       <c r="H5">
-        <v>3.777612</v>
+        <v>1.595115</v>
       </c>
       <c r="I5">
-        <v>0.002232911865451325</v>
+        <v>0.001587108162585159</v>
       </c>
       <c r="J5">
-        <v>0.001489716712341933</v>
+        <v>0.001060423178847864</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N5">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O5">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P5">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q5">
-        <v>56.594907095547</v>
+        <v>25.8960723228225</v>
       </c>
       <c r="R5">
-        <v>226.379628382188</v>
+        <v>103.58428929129</v>
       </c>
       <c r="S5">
-        <v>0.0001317319437959914</v>
+        <v>8.782702666842163E-05</v>
       </c>
       <c r="T5">
-        <v>5.984735490997523E-05</v>
+        <v>4.010770439963478E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,16 +791,16 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>1.888806</v>
+        <v>0.7975575</v>
       </c>
       <c r="H6">
-        <v>3.777612</v>
+        <v>1.595115</v>
       </c>
       <c r="I6">
-        <v>0.002232911865451325</v>
+        <v>0.001587108162585159</v>
       </c>
       <c r="J6">
-        <v>0.001489716712341933</v>
+        <v>0.001060423178847864</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N6">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O6">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P6">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q6">
-        <v>11.812055043892</v>
+        <v>41.5449618546525</v>
       </c>
       <c r="R6">
-        <v>70.87233026335201</v>
+        <v>249.269771127915</v>
       </c>
       <c r="S6">
-        <v>2.749408119939416E-05</v>
+        <v>0.0001409005360836679</v>
       </c>
       <c r="T6">
-        <v>1.873632151832588E-05</v>
+        <v>9.651693673399267E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -853,16 +853,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>1.888806</v>
+        <v>0.7975575</v>
       </c>
       <c r="H7">
-        <v>3.777612</v>
+        <v>1.595115</v>
       </c>
       <c r="I7">
-        <v>0.002232911865451325</v>
+        <v>0.001587108162585159</v>
       </c>
       <c r="J7">
-        <v>0.001489716712341933</v>
+        <v>0.001060423178847864</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N7">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O7">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P7">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q7">
-        <v>271.242362131996</v>
+        <v>160.7354211054</v>
       </c>
       <c r="R7">
-        <v>1627.454172791976</v>
+        <v>964.4125266323999</v>
       </c>
       <c r="S7">
-        <v>0.0006313515727332196</v>
+        <v>0.000545137267922385</v>
       </c>
       <c r="T7">
-        <v>0.0004302455489253073</v>
+        <v>0.000373419297483462</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>330.351781</v>
+        <v>170.2842533333333</v>
       </c>
       <c r="H8">
-        <v>991.055343</v>
+        <v>510.85276</v>
       </c>
       <c r="I8">
-        <v>0.3905358261080691</v>
+        <v>0.3388589893832762</v>
       </c>
       <c r="J8">
-        <v>0.3908267199815298</v>
+        <v>0.3396119450211458</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N8">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O8">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P8">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q8">
-        <v>666.995442020926</v>
+        <v>1845.26709083156</v>
       </c>
       <c r="R8">
-        <v>4001.972652125556</v>
+        <v>11071.60254498936</v>
       </c>
       <c r="S8">
-        <v>0.001552517895861984</v>
+        <v>0.006258258780579445</v>
       </c>
       <c r="T8">
-        <v>0.001057990417969154</v>
+        <v>0.004286910352359935</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>330.351781</v>
+        <v>170.2842533333333</v>
       </c>
       <c r="H9">
-        <v>991.055343</v>
+        <v>510.85276</v>
       </c>
       <c r="I9">
-        <v>0.3905358261080691</v>
+        <v>0.3388589893832762</v>
       </c>
       <c r="J9">
-        <v>0.3908267199815298</v>
+        <v>0.3396119450211458</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P9">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q9">
-        <v>46148.43148230181</v>
+        <v>23787.82755062022</v>
       </c>
       <c r="R9">
-        <v>415335.8833407163</v>
+        <v>214090.447955582</v>
       </c>
       <c r="S9">
-        <v>0.1074164248036741</v>
+        <v>0.08067687403046402</v>
       </c>
       <c r="T9">
-        <v>0.1098011963124845</v>
+        <v>0.08289554777212625</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>330.351781</v>
+        <v>170.2842533333333</v>
       </c>
       <c r="H10">
-        <v>991.055343</v>
+        <v>510.85276</v>
       </c>
       <c r="I10">
-        <v>0.3905358261080691</v>
+        <v>0.3388589893832762</v>
       </c>
       <c r="J10">
-        <v>0.3908267199815298</v>
+        <v>0.3396119450211458</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N10">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O10">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P10">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q10">
-        <v>61562.65780677772</v>
+        <v>25563.22196054293</v>
       </c>
       <c r="R10">
-        <v>554063.9202609995</v>
+        <v>230068.9976448864</v>
       </c>
       <c r="S10">
-        <v>0.1432950241342898</v>
+        <v>0.08669815827169733</v>
       </c>
       <c r="T10">
-        <v>0.146476342927336</v>
+        <v>0.08908242178611234</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>330.351781</v>
+        <v>170.2842533333333</v>
       </c>
       <c r="H11">
-        <v>991.055343</v>
+        <v>510.85276</v>
       </c>
       <c r="I11">
-        <v>0.3905358261080691</v>
+        <v>0.3388589893832762</v>
       </c>
       <c r="J11">
-        <v>0.3908267199815298</v>
+        <v>0.3396119450211458</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N11">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O11">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P11">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q11">
-        <v>9898.437613255936</v>
+        <v>5528.997394868494</v>
       </c>
       <c r="R11">
-        <v>59390.6256795356</v>
+        <v>33173.98436921096</v>
       </c>
       <c r="S11">
-        <v>0.02303988988154298</v>
+        <v>0.01875170086008712</v>
       </c>
       <c r="T11">
-        <v>0.01570093510078542</v>
+        <v>0.01284492434076388</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>330.351781</v>
+        <v>170.2842533333333</v>
       </c>
       <c r="H12">
-        <v>991.055343</v>
+        <v>510.85276</v>
       </c>
       <c r="I12">
-        <v>0.3905358261080691</v>
+        <v>0.3388589893832762</v>
       </c>
       <c r="J12">
-        <v>0.3908267199815298</v>
+        <v>0.3396119450211458</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N12">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O12">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P12">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q12">
-        <v>2065.925998233675</v>
+        <v>8870.14768111555</v>
       </c>
       <c r="R12">
-        <v>18593.33398410308</v>
+        <v>79831.32913003994</v>
       </c>
       <c r="S12">
-        <v>0.004808709148095927</v>
+        <v>0.03008327622932989</v>
       </c>
       <c r="T12">
-        <v>0.004915468171136352</v>
+        <v>0.03091058858910206</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,14 +1210,14 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>330.351781</v>
+        <v>170.2842533333333</v>
       </c>
       <c r="H13">
-        <v>991.055343</v>
+        <v>510.85276</v>
       </c>
       <c r="I13">
-        <v>0.3905358261080691</v>
+        <v>0.3388589893832762</v>
       </c>
       <c r="J13">
-        <v>0.3908267199815298</v>
+        <v>0.3396119450211458</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N13">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O13">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P13">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q13">
-        <v>47440.23336062668</v>
+        <v>34318.16661137529</v>
       </c>
       <c r="R13">
-        <v>426962.1002456401</v>
+        <v>308863.4995023776</v>
       </c>
       <c r="S13">
-        <v>0.1104232602446043</v>
+        <v>0.1163907212111185</v>
       </c>
       <c r="T13">
-        <v>0.1128747870518184</v>
+        <v>0.1195915521806814</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
-        <v>3.704143666666667</v>
+        <v>2.544879</v>
       </c>
       <c r="H14">
-        <v>11.112431</v>
+        <v>5.089758</v>
       </c>
       <c r="I14">
-        <v>0.004378970812585504</v>
+        <v>0.005064209456611662</v>
       </c>
       <c r="J14">
-        <v>0.004382232525586687</v>
+        <v>0.003383641529247952</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N14">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O14">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P14">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q14">
-        <v>7.478836453608666</v>
+        <v>27.577308981447</v>
       </c>
       <c r="R14">
-        <v>44.873018721652</v>
+        <v>110.309235925788</v>
       </c>
       <c r="S14">
-        <v>1.740795619123308E-05</v>
+        <v>9.352897308764017E-05</v>
       </c>
       <c r="T14">
-        <v>1.186295558707601E-05</v>
+        <v>4.271159513987317E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G15">
-        <v>3.704143666666667</v>
+        <v>2.544879</v>
       </c>
       <c r="H15">
-        <v>11.112431</v>
+        <v>5.089758</v>
       </c>
       <c r="I15">
-        <v>0.004378970812585504</v>
+        <v>0.005064209456611662</v>
       </c>
       <c r="J15">
-        <v>0.004382232525586687</v>
+        <v>0.003383641529247952</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P15">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q15">
-        <v>517.4496704219944</v>
+        <v>355.5064053438499</v>
       </c>
       <c r="R15">
-        <v>4657.047033797949</v>
+        <v>2133.0384320631</v>
       </c>
       <c r="S15">
-        <v>0.001204430829548049</v>
+        <v>0.001205706801931186</v>
       </c>
       <c r="T15">
-        <v>0.001231170616614029</v>
+        <v>0.0008259097541874136</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G16">
-        <v>3.704143666666667</v>
+        <v>2.544879</v>
       </c>
       <c r="H16">
-        <v>11.112431</v>
+        <v>5.089758</v>
       </c>
       <c r="I16">
-        <v>0.004378970812585504</v>
+        <v>0.005064209456611662</v>
       </c>
       <c r="J16">
-        <v>0.004382232525586687</v>
+        <v>0.003383641529247952</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N16">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O16">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P16">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q16">
-        <v>690.2851509619768</v>
+        <v>382.03947497352</v>
       </c>
       <c r="R16">
-        <v>6212.566358657791</v>
+        <v>2292.23684984112</v>
       </c>
       <c r="S16">
-        <v>0.001606727696472981</v>
+        <v>0.001295694217200581</v>
       </c>
       <c r="T16">
-        <v>0.001642398949169843</v>
+        <v>0.0008875511780444125</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>3.704143666666667</v>
+        <v>2.544879</v>
       </c>
       <c r="H17">
-        <v>11.112431</v>
+        <v>5.089758</v>
       </c>
       <c r="I17">
-        <v>0.004378970812585504</v>
+        <v>0.005064209456611662</v>
       </c>
       <c r="J17">
-        <v>0.004382232525586687</v>
+        <v>0.003383641529247952</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N17">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O17">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P17">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q17">
-        <v>110.9884586789532</v>
+        <v>82.63024375901699</v>
       </c>
       <c r="R17">
-        <v>665.930752073719</v>
+        <v>330.520975036068</v>
       </c>
       <c r="S17">
-        <v>0.0002583399487875466</v>
+        <v>0.0002802420587868663</v>
       </c>
       <c r="T17">
-        <v>0.0001760502671977987</v>
+        <v>0.0001279772990221246</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>3.704143666666667</v>
+        <v>2.544879</v>
       </c>
       <c r="H18">
-        <v>11.112431</v>
+        <v>5.089758</v>
       </c>
       <c r="I18">
-        <v>0.004378970812585504</v>
+        <v>0.005064209456611662</v>
       </c>
       <c r="J18">
-        <v>0.004382232525586687</v>
+        <v>0.003383641529247952</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N18">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O18">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P18">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q18">
-        <v>23.16466004510289</v>
+        <v>132.563358729253</v>
       </c>
       <c r="R18">
-        <v>208.481940405926</v>
+        <v>795.3801523755179</v>
       </c>
       <c r="S18">
-        <v>5.391873318146752E-05</v>
+        <v>0.0004495911772731979</v>
       </c>
       <c r="T18">
-        <v>5.511579274584354E-05</v>
+        <v>0.000307970178248799</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>3.704143666666667</v>
+        <v>2.544879</v>
       </c>
       <c r="H19">
-        <v>11.112431</v>
+        <v>5.089758</v>
       </c>
       <c r="I19">
-        <v>0.004378970812585504</v>
+        <v>0.005064209456611662</v>
       </c>
       <c r="J19">
-        <v>0.004382232525586687</v>
+        <v>0.003383641529247952</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N19">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O19">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P19">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q19">
-        <v>531.9342896109708</v>
+        <v>512.88113738168</v>
       </c>
       <c r="R19">
-        <v>4787.408606498738</v>
+        <v>3077.286824290079</v>
       </c>
       <c r="S19">
-        <v>0.001238145648404227</v>
+        <v>0.00173944622833219</v>
       </c>
       <c r="T19">
-        <v>0.001265633944272096</v>
+        <v>0.00119152152460533</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>509.9489336666666</v>
+        <v>51.68882633333334</v>
       </c>
       <c r="H20">
-        <v>1529.846801</v>
+        <v>155.066479</v>
       </c>
       <c r="I20">
-        <v>0.6028522912138941</v>
+        <v>0.1028587383205349</v>
       </c>
       <c r="J20">
-        <v>0.6033013307805416</v>
+        <v>0.1030872937649797</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N20">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O20">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P20">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q20">
-        <v>1029.610354723949</v>
+        <v>560.1204358567491</v>
       </c>
       <c r="R20">
-        <v>6177.662128343692</v>
+        <v>3360.722615140495</v>
       </c>
       <c r="S20">
-        <v>0.002396550861922659</v>
+        <v>0.001899659216435061</v>
       </c>
       <c r="T20">
-        <v>0.001633171414544065</v>
+        <v>0.00130126750050074</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,13 +1706,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>509.9489336666666</v>
+        <v>51.68882633333334</v>
       </c>
       <c r="H21">
-        <v>1529.846801</v>
+        <v>155.066479</v>
       </c>
       <c r="I21">
-        <v>0.6028522912138941</v>
+        <v>0.1028587383205349</v>
       </c>
       <c r="J21">
-        <v>0.6033013307805416</v>
+        <v>0.1030872937649797</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O21">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P21">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q21">
-        <v>71237.22279792714</v>
+        <v>7220.661118350172</v>
       </c>
       <c r="R21">
-        <v>641135.0051813443</v>
+        <v>64985.95006515155</v>
       </c>
       <c r="S21">
-        <v>0.165813821621017</v>
+        <v>0.02448901087004129</v>
       </c>
       <c r="T21">
-        <v>0.1694950843170293</v>
+        <v>0.02516247679233428</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>509.9489336666666</v>
+        <v>51.68882633333334</v>
       </c>
       <c r="H22">
-        <v>1529.846801</v>
+        <v>155.066479</v>
       </c>
       <c r="I22">
-        <v>0.6028522912138941</v>
+        <v>0.1028587383205349</v>
       </c>
       <c r="J22">
-        <v>0.6033013307805416</v>
+        <v>0.1030872937649797</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N22">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O22">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P22">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q22">
-        <v>95031.45891092437</v>
+        <v>7759.572095327174</v>
       </c>
       <c r="R22">
-        <v>855283.1301983193</v>
+        <v>69836.14885794457</v>
       </c>
       <c r="S22">
-        <v>0.2211979742800912</v>
+        <v>0.02631673779931585</v>
       </c>
       <c r="T22">
-        <v>0.2261088305838072</v>
+        <v>0.02704046756479368</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,13 +1830,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>509.9489336666666</v>
+        <v>51.68882633333334</v>
       </c>
       <c r="H23">
-        <v>1529.846801</v>
+        <v>155.066479</v>
       </c>
       <c r="I23">
-        <v>0.6028522912138941</v>
+        <v>0.1028587383205349</v>
       </c>
       <c r="J23">
-        <v>0.6033013307805416</v>
+        <v>0.1030872937649797</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N23">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O23">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P23">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q23">
-        <v>15279.76537788331</v>
+        <v>1678.296028825273</v>
       </c>
       <c r="R23">
-        <v>91678.59226729984</v>
+        <v>10069.77617295164</v>
       </c>
       <c r="S23">
-        <v>0.03556562413959034</v>
+        <v>0.005691973216773814</v>
       </c>
       <c r="T23">
-        <v>0.02423681533660345</v>
+        <v>0.003899004461762428</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>509.9489336666666</v>
+        <v>51.68882633333334</v>
       </c>
       <c r="H24">
-        <v>1529.846801</v>
+        <v>155.066479</v>
       </c>
       <c r="I24">
-        <v>0.6028522912138941</v>
+        <v>0.1028587383205349</v>
       </c>
       <c r="J24">
-        <v>0.6033013307805416</v>
+        <v>0.1030872937649797</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N24">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O24">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P24">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q24">
-        <v>3189.075465688216</v>
+        <v>2692.483386251262</v>
       </c>
       <c r="R24">
-        <v>28701.67919119394</v>
+        <v>24232.35047626136</v>
       </c>
       <c r="S24">
-        <v>0.007422984356135991</v>
+        <v>0.009131609118969196</v>
       </c>
       <c r="T24">
-        <v>0.007587783376725378</v>
+        <v>0.009382735127690481</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>51.68882633333334</v>
+      </c>
+      <c r="H25">
+        <v>155.066479</v>
+      </c>
+      <c r="I25">
+        <v>0.1028587383205349</v>
+      </c>
+      <c r="J25">
+        <v>0.1030872937649797</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>201.5345866666667</v>
+      </c>
+      <c r="N25">
+        <v>604.60376</v>
+      </c>
+      <c r="O25">
+        <v>0.3434783342267227</v>
+      </c>
+      <c r="P25">
+        <v>0.3521417722019025</v>
+      </c>
+      <c r="Q25">
+        <v>10417.08625037345</v>
+      </c>
+      <c r="R25">
+        <v>93753.77625336104</v>
+      </c>
+      <c r="S25">
+        <v>0.03532974809899971</v>
+      </c>
+      <c r="T25">
+        <v>0.03630134231789809</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>277.206945</v>
+      </c>
+      <c r="H26">
+        <v>831.6208349999999</v>
+      </c>
+      <c r="I26">
+        <v>0.551630954676992</v>
+      </c>
+      <c r="J26">
+        <v>0.5528566965057786</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>10.836393</v>
+      </c>
+      <c r="N26">
+        <v>21.672786</v>
+      </c>
+      <c r="O26">
+        <v>0.01846862257356514</v>
+      </c>
+      <c r="P26">
+        <v>0.01262296693390161</v>
+      </c>
+      <c r="Q26">
+        <v>3003.923398349385</v>
+      </c>
+      <c r="R26">
+        <v>18023.54039009631</v>
+      </c>
+      <c r="S26">
+        <v>0.01018786390182478</v>
+      </c>
+      <c r="T26">
+        <v>0.006978691799178521</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>277.206945</v>
+      </c>
+      <c r="H27">
+        <v>831.6208349999999</v>
+      </c>
+      <c r="I27">
+        <v>0.551630954676992</v>
+      </c>
+      <c r="J27">
+        <v>0.5528566965057786</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>139.6948166666666</v>
+      </c>
+      <c r="N27">
+        <v>419.0844499999999</v>
+      </c>
+      <c r="O27">
+        <v>0.2380839126543345</v>
+      </c>
+      <c r="P27">
+        <v>0.2440890227431923</v>
+      </c>
+      <c r="Q27">
+        <v>38724.37336050174</v>
+      </c>
+      <c r="R27">
+        <v>348519.3602445157</v>
+      </c>
+      <c r="S27">
+        <v>0.1313344560307441</v>
+      </c>
+      <c r="T27">
+        <v>0.1349462507671252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>277.206945</v>
+      </c>
+      <c r="H28">
+        <v>831.6208349999999</v>
+      </c>
+      <c r="I28">
+        <v>0.551630954676992</v>
+      </c>
+      <c r="J28">
+        <v>0.5528566965057786</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>150.12088</v>
+      </c>
+      <c r="N28">
+        <v>450.36264</v>
+      </c>
+      <c r="O28">
+        <v>0.2558532043948076</v>
+      </c>
+      <c r="P28">
+        <v>0.2623065033256284</v>
+      </c>
+      <c r="Q28">
+        <v>41614.55052551159</v>
+      </c>
+      <c r="R28">
+        <v>374530.9547296044</v>
+      </c>
+      <c r="S28">
+        <v>0.1411365473974753</v>
+      </c>
+      <c r="T28">
+        <v>0.145017906900589</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>277.206945</v>
+      </c>
+      <c r="H29">
+        <v>831.6208349999999</v>
+      </c>
+      <c r="I29">
+        <v>0.551630954676992</v>
+      </c>
+      <c r="J29">
+        <v>0.5528566965057786</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>32.469223</v>
+      </c>
+      <c r="N29">
+        <v>64.938446</v>
+      </c>
+      <c r="O29">
+        <v>0.05533777012737728</v>
+      </c>
+      <c r="P29">
+        <v>0.03782235733776705</v>
+      </c>
+      <c r="Q29">
+        <v>9000.694114353733</v>
+      </c>
+      <c r="R29">
+        <v>54004.16468612241</v>
+      </c>
+      <c r="S29">
+        <v>0.03052602696506105</v>
+      </c>
+      <c r="T29">
+        <v>0.02091034353181899</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>509.9489336666666</v>
-      </c>
-      <c r="H25">
-        <v>1529.846801</v>
-      </c>
-      <c r="I25">
-        <v>0.6028522912138941</v>
-      </c>
-      <c r="J25">
-        <v>0.6033013307805416</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>143.6051993333333</v>
-      </c>
-      <c r="N25">
-        <v>430.815598</v>
-      </c>
-      <c r="O25">
-        <v>0.2827480934208786</v>
-      </c>
-      <c r="P25">
-        <v>0.2888103122968479</v>
-      </c>
-      <c r="Q25">
-        <v>73231.31826902243</v>
-      </c>
-      <c r="R25">
-        <v>659081.864421202</v>
-      </c>
-      <c r="S25">
-        <v>0.1704553359551368</v>
-      </c>
-      <c r="T25">
-        <v>0.1742396457518322</v>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>277.206945</v>
+      </c>
+      <c r="H30">
+        <v>831.6208349999999</v>
+      </c>
+      <c r="I30">
+        <v>0.551630954676992</v>
+      </c>
+      <c r="J30">
+        <v>0.5528566965057786</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>52.09024033333333</v>
+      </c>
+      <c r="N30">
+        <v>156.270721</v>
+      </c>
+      <c r="O30">
+        <v>0.08877815602319267</v>
+      </c>
+      <c r="P30">
+        <v>0.09101737745760805</v>
+      </c>
+      <c r="Q30">
+        <v>14439.77638711911</v>
+      </c>
+      <c r="R30">
+        <v>129957.987484072</v>
+      </c>
+      <c r="S30">
+        <v>0.04897277896153671</v>
+      </c>
+      <c r="T30">
+        <v>0.05031956662583271</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>277.206945</v>
+      </c>
+      <c r="H31">
+        <v>831.6208349999999</v>
+      </c>
+      <c r="I31">
+        <v>0.551630954676992</v>
+      </c>
+      <c r="J31">
+        <v>0.5528566965057786</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>201.5345866666667</v>
+      </c>
+      <c r="N31">
+        <v>604.60376</v>
+      </c>
+      <c r="O31">
+        <v>0.3434783342267227</v>
+      </c>
+      <c r="P31">
+        <v>0.3521417722019025</v>
+      </c>
+      <c r="Q31">
+        <v>55866.78708170439</v>
+      </c>
+      <c r="R31">
+        <v>502801.0837353395</v>
+      </c>
+      <c r="S31">
+        <v>0.18947328142035</v>
+      </c>
+      <c r="T31">
+        <v>0.1946839368812343</v>
       </c>
     </row>
   </sheetData>
